--- a/medicine/Mort/Mausolée_du_château_de_Charlottenbourg/Mausolée_du_château_de_Charlottenbourg.xlsx
+++ b/medicine/Mort/Mausolée_du_château_de_Charlottenbourg/Mausolée_du_château_de_Charlottenbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_du_ch%C3%A2teau_de_Charlottenbourg</t>
+          <t>Mausolée_du_château_de_Charlottenbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mausolée dans le parc du château de Charlottenbourg (Mausoleum im Schlosspark Charlottenburg) est érigé à Berlin en 1810 après la mort de la reine de Prusse Louise de Mecklembourg-Strelitz et devient la sépulture de membres importants de la famille royale de Prusse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_du_ch%C3%A2teau_de_Charlottenbourg</t>
+          <t>Mausolée_du_château_de_Charlottenbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise de Mecklembourg-Strelitz, épouse du roi Frédéric-Guillaume III de Prusse, décède le 19 juillet 1810 d'une pneumonie à l'âge de 34 ans au château de Hohenzieritz. Le corps de la reine est transféré à Berlin et enterré dans la cathédrale le 30 juillet 1810.
-Frédéric-Guillaume III charge l'architecte Heinrich Gentz de construire immédiatement un mausolée dans le parc du château de Charlottenbourg. Karl Friedrich Schinkel collabore au projet, de même que le roi intervient en choisissant de l'établir au bout d'une allée de sapins, lieu apprécié de la princesse[1]. Pour le matériau, on peut en récupérer là où il n'y en a plus besoin comme au château d'Oranienbourg (de) ou au palais de Sanssouci. Il devient possible de terminer la construction en seulement cinq mois.
-Le 23 décembre 1810, les cendres de Louise de Mecklembourg-Strelitz sont mises dans le mausolée. L'endroit est rapidement un lieu de vénération de la défunte reine. Frédéric-Guillaume III demande au sculpteur Christian Daniel Rauch un sarcophage en marbre représentant la princesse Louise endormie. Rauch présente le modèle en plâtre au roi qui approuve. Fait à Rome avec le marbre de Carrare, lors du transport en 1814, le navire de transport britannique est détourné par un navire américain lequel est repris par un autre navire anglais qui récupère le sarcophage. Il arrive au printemps 1815 avec un retard de six mois et des dommages causés par l'eau salée[2].
+Frédéric-Guillaume III charge l'architecte Heinrich Gentz de construire immédiatement un mausolée dans le parc du château de Charlottenbourg. Karl Friedrich Schinkel collabore au projet, de même que le roi intervient en choisissant de l'établir au bout d'une allée de sapins, lieu apprécié de la princesse. Pour le matériau, on peut en récupérer là où il n'y en a plus besoin comme au château d'Oranienbourg (de) ou au palais de Sanssouci. Il devient possible de terminer la construction en seulement cinq mois.
+Le 23 décembre 1810, les cendres de Louise de Mecklembourg-Strelitz sont mises dans le mausolée. L'endroit est rapidement un lieu de vénération de la défunte reine. Frédéric-Guillaume III demande au sculpteur Christian Daniel Rauch un sarcophage en marbre représentant la princesse Louise endormie. Rauch présente le modèle en plâtre au roi qui approuve. Fait à Rome avec le marbre de Carrare, lors du transport en 1814, le navire de transport britannique est détourné par un navire américain lequel est repris par un autre navire anglais qui récupère le sarcophage. Il arrive au printemps 1815 avec un retard de six mois et des dommages causés par l'eau salée.
 Le pignon façon temple avec quatre colonnes doriques est d'abord fait en grès. Ce portique est remplacé en 1828 par une nouvelle version de granit rouge, le premier pignon est déplacé à Pfaueninsel.
 Après la mort du roi Frédéric-Guillaume III en 1840, Ludwig Ferdinand Hesse allonge le mausolée en 1841 avec un bâtiment transversal comprenant une abside afin de pouvoir rassembler le couple royal. L'abside est décorée en 1849 par une fresque de Carl Gottfried Pfannschmidt, représentant le roi et la reine agenouillés de chaque côté du Christ.
 Après la mort du premier couple impérial allemand, le bâtiment est encore agrandi par Albert Geyer afin de placer les sépultures de l'empereur Guillaume et son épouse Augusta de Saxe-Weimar-Eisenach, œuvres d'Erdmann Encke.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_du_ch%C3%A2teau_de_Charlottenbourg</t>
+          <t>Mausolée_du_château_de_Charlottenbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louise de Mecklembourg-Strelitz (1776-1810), première épouse de Frédéric-Guillaume III de Prusse
 Frédéric-Guillaume III de Prusse (1770-1840)
